--- a/content/opiniones_usuarios_clasificadas.xlsx
+++ b/content/opiniones_usuarios_clasificadas.xlsx
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
